--- a/DataGenerator/XLSXS/ItemData.xlsx
+++ b/DataGenerator/XLSXS/ItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91331D0-FA0D-46FE-8521-D818A90A0FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9B1E6-8D89-4CA0-A89C-B34891DA88F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1020" windowWidth="21600" windowHeight="13335" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>LEGEND</t>
   </si>
   <si>
-    <t>ITEM_SHIELD</t>
-  </si>
-  <si>
     <t>방패</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>descID</t>
   </si>
   <si>
-    <t>eItemTier</t>
-  </si>
-  <si>
     <t>eFunction</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
   </si>
   <si>
     <t>DESC_ITEM_DAGGER</t>
-  </si>
-  <si>
-    <t>DESC_ITEM_SHIELD</t>
   </si>
   <si>
     <t>DESC_ITEM_BOW</t>
@@ -217,9 +208,6 @@
     <t>icon_Shield</t>
   </si>
   <si>
-    <t>DESC_ITEM_SHIELD_MAINOPTION</t>
-  </si>
-  <si>
     <t>icon_Bow</t>
   </si>
   <si>
@@ -239,6 +227,18 @@
   </si>
   <si>
     <t>NONE</t>
+  </si>
+  <si>
+    <t>eTier</t>
+  </si>
+  <si>
+    <t>ITEM_BARRIER</t>
+  </si>
+  <si>
+    <t>DESC_ITEM_BARRIER</t>
+  </si>
+  <si>
+    <t>DESC_ITEM_BARRIER_MAINOPTION</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
     <col min="12" max="12" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,10 +666,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -687,10 +687,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -713,7 +713,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
     </row>
-    <row r="2" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -724,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -745,10 +745,10 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -782,13 +782,13 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
@@ -800,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
@@ -829,7 +829,7 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>800000</v>
       </c>
@@ -840,10 +840,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -859,10 +859,10 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -885,7 +885,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>800010</v>
       </c>
@@ -896,10 +896,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>25</v>
@@ -915,10 +915,10 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -941,7 +941,7 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>800020</v>
       </c>
@@ -952,10 +952,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>26</v>
@@ -971,10 +971,10 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -997,7 +997,7 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>800030</v>
       </c>
@@ -1008,10 +1008,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
@@ -1027,10 +1027,10 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1053,7 +1053,7 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>800040</v>
       </c>
@@ -1064,10 +1064,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -1083,10 +1083,10 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1109,27 +1109,27 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>800100</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4">
         <v>100</v>
@@ -1139,10 +1139,10 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1165,27 +1165,27 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>800110</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4">
         <v>200</v>
@@ -1195,10 +1195,10 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1221,27 +1221,27 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>800120</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4">
         <v>300</v>
@@ -1251,10 +1251,10 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1277,27 +1277,27 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>800130</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="4">
         <v>400</v>
@@ -1307,10 +1307,10 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1333,27 +1333,27 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>800140</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="4">
         <v>500</v>
@@ -1363,10 +1363,10 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1389,27 +1389,27 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>800200</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="4">
         <v>7000</v>
@@ -1419,10 +1419,10 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1445,27 +1445,27 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>800210</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4">
         <v>8000</v>
@@ -1475,10 +1475,10 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1501,27 +1501,27 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>800220</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="4">
         <v>9000</v>
@@ -1531,10 +1531,10 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1557,27 +1557,27 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>800230</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="4">
         <v>10000</v>
@@ -1587,10 +1587,10 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1613,27 +1613,27 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>800240</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="4">
         <v>12000</v>
@@ -1643,10 +1643,10 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1669,27 +1669,27 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>800300</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="4">
         <v>10</v>
@@ -1699,10 +1699,10 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1725,27 +1725,27 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>800310</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="4">
         <v>20</v>
@@ -1755,10 +1755,10 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1781,27 +1781,27 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
     </row>
-    <row r="21" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>800320</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="4">
         <v>30</v>
@@ -1811,10 +1811,10 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1837,27 +1837,27 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>800330</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="4">
         <v>40</v>
@@ -1867,10 +1867,10 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1893,27 +1893,27 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="1:32" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>800340</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="4">
         <v>50</v>
@@ -1923,10 +1923,10 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1949,27 +1949,27 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>800400</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" s="4">
         <v>7000</v>
@@ -1979,10 +1979,10 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2005,27 +2005,27 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>800410</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" s="4">
         <v>8000</v>
@@ -2035,10 +2035,10 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2061,27 +2061,27 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>800420</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" s="4">
         <v>9000</v>
@@ -2091,10 +2091,10 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2117,27 +2117,27 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>800430</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="4">
         <v>10000</v>
@@ -2147,10 +2147,10 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2173,27 +2173,27 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>800440</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="4">
         <v>12000</v>
@@ -2203,10 +2203,10 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2229,18 +2229,18 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="1:32" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>810000</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2249,10 +2249,10 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
